--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.720171333333333</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N2">
-        <v>5.160513999999999</v>
+        <v>9.060001</v>
       </c>
       <c r="O2">
-        <v>0.1961456356393658</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P2">
-        <v>0.1961456356393657</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q2">
-        <v>31.04114480171621</v>
+        <v>14.68309867398422</v>
       </c>
       <c r="R2">
-        <v>279.370303215446</v>
+        <v>132.147888065858</v>
       </c>
       <c r="S2">
-        <v>0.1333390132937476</v>
+        <v>0.1164658732199036</v>
       </c>
       <c r="T2">
-        <v>0.1333390132937475</v>
+        <v>0.1164658732199036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H3">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q3">
-        <v>73.5599811588971</v>
+        <v>19.81920874826978</v>
       </c>
       <c r="R3">
-        <v>662.0398304300739</v>
+        <v>178.372878734428</v>
       </c>
       <c r="S3">
-        <v>0.3159811072783536</v>
+        <v>0.15720533551168</v>
       </c>
       <c r="T3">
-        <v>0.3159811072783535</v>
+        <v>0.15720533551168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H4">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.973308</v>
+        <v>3.229698</v>
       </c>
       <c r="N4">
-        <v>8.919924</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O4">
-        <v>0.3390368019222182</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P4">
-        <v>0.3390368019222182</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q4">
-        <v>53.65447172593733</v>
+        <v>15.702638803628</v>
       </c>
       <c r="R4">
-        <v>482.890245533436</v>
+        <v>141.323749232652</v>
       </c>
       <c r="S4">
-        <v>0.2304758527571513</v>
+        <v>0.1245528332082666</v>
       </c>
       <c r="T4">
-        <v>0.2304758527571513</v>
+        <v>0.1245528332082666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6001993333333334</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H5">
-        <v>1.800598</v>
+        <v>14.585858</v>
       </c>
       <c r="I5">
-        <v>0.0226103909993416</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J5">
-        <v>0.02261039099934159</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.720171333333333</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N5">
-        <v>5.160513999999999</v>
+        <v>0.104303</v>
       </c>
       <c r="O5">
-        <v>0.1961456356393658</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P5">
-        <v>0.1961456356393657</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q5">
-        <v>1.032445687485778</v>
+        <v>0.1690387496637778</v>
       </c>
       <c r="R5">
-        <v>9.292011187371999</v>
+        <v>1.521348746974</v>
       </c>
       <c r="S5">
-        <v>0.004434929514620452</v>
+        <v>0.001340810003713643</v>
       </c>
       <c r="T5">
-        <v>0.004434929514620451</v>
+        <v>0.001340810003713643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J6">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.076388666666666</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N6">
-        <v>12.229166</v>
+        <v>9.060001</v>
       </c>
       <c r="O6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q6">
-        <v>2.446645760140889</v>
+        <v>1.812602186733111</v>
       </c>
       <c r="R6">
-        <v>22.019811841268</v>
+        <v>16.313419680598</v>
       </c>
       <c r="S6">
-        <v>0.01050970683009346</v>
+        <v>0.01437750308470109</v>
       </c>
       <c r="T6">
-        <v>0.01050970683009346</v>
+        <v>0.01437750308470109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.973308</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N7">
-        <v>8.919924</v>
+        <v>12.229166</v>
       </c>
       <c r="O7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q7">
-        <v>1.784577479394667</v>
+        <v>2.446645760140889</v>
       </c>
       <c r="R7">
-        <v>16.061197314552</v>
+        <v>22.019811841268</v>
       </c>
       <c r="S7">
-        <v>0.007665754654627683</v>
+        <v>0.01940671660944868</v>
       </c>
       <c r="T7">
-        <v>0.007665754654627681</v>
+        <v>0.01940671660944868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.209654333333333</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H8">
-        <v>9.628962999999999</v>
+        <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.1209123959641148</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J8">
-        <v>0.1209123959641148</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.720171333333333</v>
+        <v>3.229698</v>
       </c>
       <c r="N8">
-        <v>5.160513999999999</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O8">
-        <v>0.1961456356393658</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P8">
-        <v>0.1961456356393657</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q8">
-        <v>5.521155374109109</v>
+        <v>1.938462586468001</v>
       </c>
       <c r="R8">
-        <v>49.69039836698199</v>
+        <v>17.446163278212</v>
       </c>
       <c r="S8">
-        <v>0.02371643876305998</v>
+        <v>0.01537582378555574</v>
       </c>
       <c r="T8">
-        <v>0.02371643876305998</v>
+        <v>0.01537582378555574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.209654333333333</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H9">
-        <v>9.628962999999999</v>
+        <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.1209123959641148</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J9">
-        <v>0.1209123959641148</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.076388666666666</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N9">
-        <v>12.229166</v>
+        <v>0.104303</v>
       </c>
       <c r="O9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q9">
-        <v>13.08379854831755</v>
+        <v>0.02086753035488889</v>
       </c>
       <c r="R9">
-        <v>117.754186934858</v>
+        <v>0.187807773194</v>
       </c>
       <c r="S9">
-        <v>0.05620220516062842</v>
+        <v>0.000165520589263023</v>
       </c>
       <c r="T9">
-        <v>0.0562022051606284</v>
+        <v>0.000165520589263023</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H10">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.973308</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N10">
-        <v>8.919924</v>
+        <v>9.060001</v>
       </c>
       <c r="O10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q10">
-        <v>9.543290906534665</v>
+        <v>12.70439948891811</v>
       </c>
       <c r="R10">
-        <v>85.88961815881198</v>
+        <v>114.339595400263</v>
       </c>
       <c r="S10">
-        <v>0.04099375204042641</v>
+        <v>0.1007708940097895</v>
       </c>
       <c r="T10">
-        <v>0.0409937520404264</v>
+        <v>0.1007708940097895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.690054333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H11">
-        <v>14.070163</v>
+        <v>12.620263</v>
       </c>
       <c r="I11">
-        <v>0.1766812397072912</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J11">
-        <v>0.1766812397072912</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.720171333333333</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N11">
-        <v>5.160513999999999</v>
+        <v>12.229166</v>
       </c>
       <c r="O11">
-        <v>0.1961456356393658</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P11">
-        <v>0.1961456356393657</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q11">
-        <v>8.067697015975776</v>
+        <v>17.14836568785088</v>
       </c>
       <c r="R11">
-        <v>72.60927314378199</v>
+        <v>154.335291190658</v>
       </c>
       <c r="S11">
-        <v>0.03465525406793778</v>
+        <v>0.1360202930236014</v>
       </c>
       <c r="T11">
-        <v>0.03465525406793778</v>
+        <v>0.1360202930236014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.690054333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H12">
-        <v>14.070163</v>
+        <v>12.620263</v>
       </c>
       <c r="I12">
-        <v>0.1766812397072912</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J12">
-        <v>0.1766812397072912</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076388666666666</v>
+        <v>3.229698</v>
       </c>
       <c r="N12">
-        <v>12.229166</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O12">
-        <v>0.464817562438416</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P12">
-        <v>0.464817562438416</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q12">
-        <v>19.11848433045089</v>
+        <v>13.586546056858</v>
       </c>
       <c r="R12">
-        <v>172.066358974058</v>
+        <v>122.278914511722</v>
       </c>
       <c r="S12">
-        <v>0.08212454316934058</v>
+        <v>0.1077680526221672</v>
       </c>
       <c r="T12">
-        <v>0.08212454316934056</v>
+        <v>0.1077680526221672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.206754333333333</v>
+      </c>
+      <c r="H13">
+        <v>12.620263</v>
+      </c>
+      <c r="I13">
+        <v>0.3457193616641432</v>
+      </c>
+      <c r="J13">
+        <v>0.3457193616641432</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.104303</v>
+      </c>
+      <c r="O13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q13">
+        <v>0.1462590324098889</v>
+      </c>
+      <c r="R13">
+        <v>1.316331291689</v>
+      </c>
+      <c r="S13">
+        <v>0.001160122008585107</v>
+      </c>
+      <c r="T13">
+        <v>0.001160122008585107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.499212666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.497638</v>
+      </c>
+      <c r="I14">
+        <v>0.2053902223233243</v>
+      </c>
+      <c r="J14">
+        <v>0.2053902223233243</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.020000333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.060001</v>
+      </c>
+      <c r="O14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="P14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="Q14">
+        <v>7.547623086404222</v>
+      </c>
+      <c r="R14">
+        <v>67.92860777763801</v>
+      </c>
+      <c r="S14">
+        <v>0.05986750705763979</v>
+      </c>
+      <c r="T14">
+        <v>0.05986750705763979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.499212666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.497638</v>
+      </c>
+      <c r="I15">
+        <v>0.2053902223233243</v>
+      </c>
+      <c r="J15">
+        <v>0.2053902223233243</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N15">
+        <v>12.229166</v>
+      </c>
+      <c r="O15">
+        <v>0.3934413518781783</v>
+      </c>
+      <c r="P15">
+        <v>0.3934413518781784</v>
+      </c>
+      <c r="Q15">
+        <v>10.18776218998978</v>
+      </c>
+      <c r="R15">
+        <v>91.68985970990799</v>
+      </c>
+      <c r="S15">
+        <v>0.08080900673344832</v>
+      </c>
+      <c r="T15">
+        <v>0.08080900673344833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.690054333333333</v>
-      </c>
-      <c r="H13">
-        <v>14.070163</v>
-      </c>
-      <c r="I13">
-        <v>0.1766812397072912</v>
-      </c>
-      <c r="J13">
-        <v>0.1766812397072912</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.973308</v>
-      </c>
-      <c r="N13">
-        <v>8.919924</v>
-      </c>
-      <c r="O13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="P13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="Q13">
-        <v>13.94497606973467</v>
-      </c>
-      <c r="R13">
-        <v>125.504784627612</v>
-      </c>
-      <c r="S13">
-        <v>0.05990144247001284</v>
-      </c>
-      <c r="T13">
-        <v>0.05990144247001283</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.499212666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.497638</v>
+      </c>
+      <c r="I16">
+        <v>0.2053902223233243</v>
+      </c>
+      <c r="J16">
+        <v>0.2053902223233243</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.229698</v>
+      </c>
+      <c r="N16">
+        <v>9.689094000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.311721195201271</v>
+      </c>
+      <c r="P16">
+        <v>0.3117211952012711</v>
+      </c>
+      <c r="Q16">
+        <v>8.071702151108001</v>
+      </c>
+      <c r="R16">
+        <v>72.64531935997201</v>
+      </c>
+      <c r="S16">
+        <v>0.06402448558528143</v>
+      </c>
+      <c r="T16">
+        <v>0.06402448558528144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.499212666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.497638</v>
+      </c>
+      <c r="I17">
+        <v>0.2053902223233243</v>
+      </c>
+      <c r="J17">
+        <v>0.2053902223233243</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.104303</v>
+      </c>
+      <c r="O17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q17">
+        <v>0.08689179292377779</v>
+      </c>
+      <c r="R17">
+        <v>0.7820261363140001</v>
+      </c>
+      <c r="S17">
+        <v>0.0006892229469547523</v>
+      </c>
+      <c r="T17">
+        <v>0.0006892229469547524</v>
       </c>
     </row>
   </sheetData>
